--- a/ballots/2013-09 DSTU/QA/recon_fhir_r1_d1_2013sep_20131231123534_lantana.xlsx
+++ b/ballots/2013-09 DSTU/QA/recon_fhir_r1_d1_2013sep_20131231123534_lantana.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="2"/>
+    <workbookView xWindow="6345" yWindow="720" windowWidth="27795" windowHeight="15705" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Reconciliation Peer Review" sheetId="2" r:id="rId2"/>
     <sheet name="Specification QA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Reviewer Name</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t xml:space="preserve">Note that FHIR documents are general documents, and to not currently meet the strict requirements for clinical documents (i.e. a FHIR document could be a Do Not Resussitate order, which is a legal document not a clinical document). Also note that a strict FHIR profile for clinicial documents is needed once the other corrections in the QA sheet have been made (changing instant to dateTime for instance). </t>
+  </si>
+  <si>
+    <t>Grahame</t>
+  </si>
+  <si>
+    <t>For San Antonio</t>
+  </si>
+  <si>
+    <t>For future consideration</t>
   </si>
 </sst>
 </file>
@@ -599,13 +608,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +624,7 @@
     <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -625,8 +634,11 @@
       <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>110</v>
       </c>
@@ -636,8 +648,11 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>565</v>
       </c>
@@ -646,6 +661,9 @@
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -655,13 +673,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +691,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -692,8 +710,11 @@
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -712,8 +733,11 @@
       <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -732,8 +756,11 @@
       <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="G3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -752,8 +779,11 @@
       <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -766,8 +796,11 @@
       <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
@@ -780,8 +813,11 @@
       <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
@@ -799,6 +835,9 @@
       </c>
       <c r="F7" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
